--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VWITS Trainning Dta\Project\OnlineExamPortal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BB6DFF-A5FF-4EED-A7E3-209728EC247A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EED809-26A2-48F6-9F03-4442AFF21CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{85CA1168-877E-4146-8EBC-B12D5AEA0712}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>Type</t>
   </si>
@@ -91,6 +91,156 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Which type of integrity preserves the defined relationship between tables when records are entered or deleted?</t>
+  </si>
+  <si>
+    <t>The command to remove rows from a table CUSTOMER is:</t>
+  </si>
+  <si>
+    <t>Which of the following is the original purpose of SQL?</t>
+  </si>
+  <si>
+    <t>Default is a type of constraint although it does not really enforce anything</t>
+  </si>
+  <si>
+    <t>A relation scheme is said to be in ______________ form if the values in the domain of each attribute of the relation are atomic?</t>
+  </si>
+  <si>
+    <t>What are the different events in Triggers?</t>
+  </si>
+  <si>
+    <t>Which of the following SQL command can be used to modify existing data in a database table?</t>
+  </si>
+  <si>
+    <t>Identify the relationship between a Movie table and Stars table:</t>
+  </si>
+  <si>
+    <t>The SQL keyword(s) ________ is used with wildcards.</t>
+  </si>
+  <si>
+    <t>The JOIN which does the Cartesian Product is called?</t>
+  </si>
+  <si>
+    <t>REMOVE FROM CUSTOMER ...</t>
+  </si>
+  <si>
+    <t>To specify the syntax and semantics of SQL data definition language</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Unnormalized</t>
+  </si>
+  <si>
+    <t>Define, Create</t>
+  </si>
+  <si>
+    <t>MODIFY</t>
+  </si>
+  <si>
+    <t>One to one</t>
+  </si>
+  <si>
+    <t>LIKE only</t>
+  </si>
+  <si>
+    <t>Left Join</t>
+  </si>
+  <si>
+    <t>DROP FROM CUSTOMER ...</t>
+  </si>
+  <si>
+    <t>To specify the syntax and semantics of SQL manipulation language</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>First Normal</t>
+  </si>
+  <si>
+    <t>Drop, Comment</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>One to many</t>
+  </si>
+  <si>
+    <t>IN only</t>
+  </si>
+  <si>
+    <t>Left Outer Join</t>
+  </si>
+  <si>
+    <t>DELETE FROM CUSTOMER WHERE ...</t>
+  </si>
+  <si>
+    <t>To define the data structures</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>BoyceCODD</t>
+  </si>
+  <si>
+    <t>Insert, Update, Delete</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>Many to many</t>
+  </si>
+  <si>
+    <t>NOT IN only</t>
+  </si>
+  <si>
+    <t>Right Outer Join</t>
+  </si>
+  <si>
+    <t>UPDATE FROM CUSTOMER ...</t>
+  </si>
+  <si>
+    <t>All of the above</t>
+  </si>
+  <si>
+    <t>None of these</t>
+  </si>
+  <si>
+    <t>Select, Commit</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>None of above</t>
+  </si>
+  <si>
+    <t>IN and NOT IN</t>
+  </si>
+  <si>
+    <t>Cross Join</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
   </si>
 </sst>
 </file>
@@ -466,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29744A3F-B936-4E2A-9BAE-0975F8638698}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +696,296 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
